--- a/data/Negociado_de_Policia/NPPRincidentes_2022.xlsx
+++ b/data/Negociado_de_Policia/NPPRincidentes_2022.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana.pagan\Desktop\Comite PARE\NPPR\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixbaez822/Desktop/Estadisticas-Sobre-Violencia-de-Genero-en-Puerto-Rico/data/Negociado_de_Policia/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16150C58-5D7C-9C44-9582-0653E0A4B398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="8140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Áreas Policiacas</t>
   </si>
@@ -105,9 +117,6 @@
   </si>
   <si>
     <t>Diciembre 2022</t>
-  </si>
-  <si>
-    <t>Nota: Datos acumulados desde enero 2022 hasta diciembre 2022.</t>
   </si>
   <si>
     <t>Estimados Anuales de Población por área policíaca 2022</t>
@@ -116,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,24 +436,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -483,7 +492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -527,7 +536,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -571,7 +580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -615,7 +624,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -659,7 +668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -703,7 +712,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -747,7 +756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -791,7 +800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -835,7 +844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -879,7 +888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -923,7 +932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -967,7 +976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1101,11 +1110,6 @@
       </c>
       <c r="N15">
         <v>499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
